--- a/survey_resources/usaid-laos-ev/usaid-laos-ev-demo-survey-v2.xlsx
+++ b/survey_resources/usaid-laos-ev/usaid-laos-ev-demo-survey-v2.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awheelis/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C9AC493-D04A-BF42-9D8A-87582778FF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -348,13 +342,13 @@
     <t>What challenges do you face in your daily travels?</t>
   </si>
   <si>
-    <t>ເຈົ້າປະເຊີນກັບສິ່ງທ້າທາຍອັນໃດໃນການເດີນທາງປະຈໍາວັນຂອງເຈົ້າ?</t>
+    <t>ທ່ານພົບກັບສິ່ງທ້າທາຍ (ທີ່ເປັນຫຍຸ້ງຍາກ) ອັນໃດແດ່ໃນການເດີນທາງປະຈໍາວັນຂອງທ່ານ?</t>
   </si>
   <si>
     <t>Select up to 3</t>
   </si>
   <si>
-    <t>ເລືອກສູງສຸດ 3</t>
+    <t xml:space="preserve"> ທ່ານສາມາດເລືອກໄດ້ສູງສຸດ 3 ຂໍ້</t>
   </si>
   <si>
     <t>select_one zd44g49</t>
@@ -1404,8 +1398,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1434,32 +1428,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1497,7 +1480,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1531,7 +1514,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1566,10 +1548,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1742,33 +1723,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="44.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1787,7 +1759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1795,7 +1767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1803,68 +1775,68 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>28</v>
       </c>
       <c r="G7" t="s">
@@ -1874,17 +1846,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>33</v>
       </c>
       <c r="E8" t="s">
@@ -1897,34 +1869,34 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>36</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>39</v>
       </c>
       <c r="G9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>43</v>
       </c>
       <c r="E10" t="s">
@@ -1937,51 +1909,51 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>46</v>
       </c>
       <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>49</v>
       </c>
       <c r="G11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>50</v>
       </c>
       <c r="B12" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>53</v>
       </c>
       <c r="G12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>54</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>57</v>
       </c>
       <c r="G13" t="s">
@@ -1991,73 +1963,73 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>62</v>
       </c>
       <c r="G15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>63</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>66</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>67</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>70</v>
       </c>
       <c r="G17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>71</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>74</v>
       </c>
       <c r="E18" t="s">
@@ -2070,85 +2042,85 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>77</v>
       </c>
       <c r="B19" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>80</v>
       </c>
       <c r="G19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>81</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>84</v>
       </c>
       <c r="G20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>81</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>87</v>
       </c>
       <c r="G21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>88</v>
       </c>
       <c r="B22" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>91</v>
       </c>
       <c r="G22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>92</v>
       </c>
       <c r="B23" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>95</v>
       </c>
       <c r="E23" t="s">
@@ -2161,17 +2133,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>92</v>
       </c>
       <c r="B24" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>95</v>
       </c>
       <c r="E24" t="s">
@@ -2184,34 +2156,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>101</v>
       </c>
       <c r="B25" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>104</v>
       </c>
       <c r="G25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>105</v>
       </c>
       <c r="B26" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>108</v>
       </c>
       <c r="E26" t="s">
@@ -2224,34 +2196,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>111</v>
       </c>
       <c r="B27" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>114</v>
       </c>
       <c r="G27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>115</v>
       </c>
       <c r="B28" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>118</v>
       </c>
       <c r="G28" t="s">
@@ -2261,22 +2233,22 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>11</v>
       </c>
       <c r="B30" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>122</v>
       </c>
       <c r="G30" t="s">
@@ -2286,17 +2258,17 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>124</v>
       </c>
       <c r="B31" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>127</v>
       </c>
       <c r="E31" t="s">
@@ -2309,17 +2281,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>130</v>
       </c>
       <c r="B32" t="s">
         <v>131</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>132</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>133</v>
       </c>
       <c r="E32" t="s">
@@ -2332,34 +2304,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>136</v>
       </c>
       <c r="B33" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>139</v>
       </c>
       <c r="G33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>140</v>
       </c>
       <c r="B34" t="s">
         <v>141</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>142</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>143</v>
       </c>
       <c r="E34" t="s">
@@ -2375,51 +2347,51 @@
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>147</v>
       </c>
       <c r="B35" t="s">
         <v>148</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>149</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>150</v>
       </c>
       <c r="G35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>151</v>
       </c>
       <c r="B36" t="s">
         <v>152</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>153</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>154</v>
       </c>
       <c r="G36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>155</v>
       </c>
       <c r="B37" t="s">
         <v>156</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>157</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>158</v>
       </c>
       <c r="E37" t="s">
@@ -2435,17 +2407,17 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>162</v>
       </c>
       <c r="B38" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>164</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>165</v>
       </c>
       <c r="E38" t="s">
@@ -2461,7 +2433,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -2472,14 +2444,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E154"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>167</v>
       </c>
@@ -2496,7 +2468,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>169</v>
       </c>
@@ -2510,7 +2482,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>169</v>
       </c>
@@ -2524,7 +2496,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>169</v>
       </c>
@@ -2538,7 +2510,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>169</v>
       </c>
@@ -2552,7 +2524,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>169</v>
       </c>
@@ -2566,7 +2538,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>169</v>
       </c>
@@ -2580,7 +2552,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>169</v>
       </c>
@@ -2594,7 +2566,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>169</v>
       </c>
@@ -2608,7 +2580,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>169</v>
       </c>
@@ -2622,7 +2594,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>169</v>
       </c>
@@ -2636,7 +2608,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>169</v>
       </c>
@@ -2650,7 +2622,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>169</v>
       </c>
@@ -2664,7 +2636,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>169</v>
       </c>
@@ -2678,7 +2650,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>209</v>
       </c>
@@ -2692,7 +2664,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>209</v>
       </c>
@@ -2706,7 +2678,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>209</v>
       </c>
@@ -2720,7 +2692,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>209</v>
       </c>
@@ -2734,7 +2706,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>209</v>
       </c>
@@ -2748,7 +2720,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>221</v>
       </c>
@@ -2762,7 +2734,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>221</v>
       </c>
@@ -2776,7 +2748,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>221</v>
       </c>
@@ -2790,7 +2762,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>228</v>
       </c>
@@ -2804,7 +2776,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>228</v>
       </c>
@@ -2821,7 +2793,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>228</v>
       </c>
@@ -2838,7 +2810,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>228</v>
       </c>
@@ -2855,7 +2827,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>228</v>
       </c>
@@ -2872,7 +2844,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>228</v>
       </c>
@@ -2889,7 +2861,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>246</v>
       </c>
@@ -2903,7 +2875,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>246</v>
       </c>
@@ -2917,7 +2889,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>246</v>
       </c>
@@ -2931,7 +2903,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>247</v>
       </c>
@@ -2945,7 +2917,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>247</v>
       </c>
@@ -2959,7 +2931,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>247</v>
       </c>
@@ -2973,7 +2945,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>247</v>
       </c>
@@ -2987,7 +2959,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>247</v>
       </c>
@@ -3001,7 +2973,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>247</v>
       </c>
@@ -3015,7 +2987,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>263</v>
       </c>
@@ -3029,7 +3001,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>263</v>
       </c>
@@ -3043,7 +3015,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>263</v>
       </c>
@@ -3057,7 +3029,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>263</v>
       </c>
@@ -3071,7 +3043,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>263</v>
       </c>
@@ -3085,7 +3057,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>263</v>
       </c>
@@ -3099,7 +3071,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>279</v>
       </c>
@@ -3113,7 +3085,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>279</v>
       </c>
@@ -3127,7 +3099,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>279</v>
       </c>
@@ -3141,7 +3113,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>280</v>
       </c>
@@ -3155,7 +3127,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>280</v>
       </c>
@@ -3172,7 +3144,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>280</v>
       </c>
@@ -3189,7 +3161,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>280</v>
       </c>
@@ -3206,7 +3178,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>290</v>
       </c>
@@ -3220,7 +3192,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>290</v>
       </c>
@@ -3237,7 +3209,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>290</v>
       </c>
@@ -3254,7 +3226,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>290</v>
       </c>
@@ -3271,7 +3243,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>300</v>
       </c>
@@ -3285,7 +3257,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>300</v>
       </c>
@@ -3302,7 +3274,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>300</v>
       </c>
@@ -3319,7 +3291,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>300</v>
       </c>
@@ -3336,7 +3308,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>300</v>
       </c>
@@ -3353,7 +3325,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>313</v>
       </c>
@@ -3367,7 +3339,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>313</v>
       </c>
@@ -3381,7 +3353,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>313</v>
       </c>
@@ -3395,7 +3367,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>313</v>
       </c>
@@ -3409,7 +3381,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>313</v>
       </c>
@@ -3423,7 +3395,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>313</v>
       </c>
@@ -3437,7 +3409,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>313</v>
       </c>
@@ -3451,7 +3423,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>313</v>
       </c>
@@ -3465,7 +3437,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>313</v>
       </c>
@@ -3479,7 +3451,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>338</v>
       </c>
@@ -3493,7 +3465,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>338</v>
       </c>
@@ -3507,7 +3479,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>338</v>
       </c>
@@ -3521,7 +3493,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>338</v>
       </c>
@@ -3535,7 +3507,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>338</v>
       </c>
@@ -3549,7 +3521,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>338</v>
       </c>
@@ -3563,7 +3535,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>338</v>
       </c>
@@ -3577,7 +3549,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>338</v>
       </c>
@@ -3591,7 +3563,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>338</v>
       </c>
@@ -3605,7 +3577,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>344</v>
       </c>
@@ -3619,7 +3591,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>344</v>
       </c>
@@ -3636,7 +3608,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>344</v>
       </c>
@@ -3653,7 +3625,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>344</v>
       </c>
@@ -3670,7 +3642,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>344</v>
       </c>
@@ -3687,7 +3659,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>344</v>
       </c>
@@ -3704,7 +3676,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>344</v>
       </c>
@@ -3721,7 +3693,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>349</v>
       </c>
@@ -3735,7 +3707,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>349</v>
       </c>
@@ -3749,7 +3721,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>349</v>
       </c>
@@ -3763,7 +3735,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>349</v>
       </c>
@@ -3777,7 +3749,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>349</v>
       </c>
@@ -3791,7 +3763,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>349</v>
       </c>
@@ -3805,7 +3777,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>349</v>
       </c>
@@ -3819,7 +3791,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>350</v>
       </c>
@@ -3833,7 +3805,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>350</v>
       </c>
@@ -3847,7 +3819,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>350</v>
       </c>
@@ -3861,7 +3833,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>350</v>
       </c>
@@ -3875,7 +3847,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>350</v>
       </c>
@@ -3889,7 +3861,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>350</v>
       </c>
@@ -3903,7 +3875,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>354</v>
       </c>
@@ -3917,7 +3889,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>354</v>
       </c>
@@ -3931,7 +3903,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>354</v>
       </c>
@@ -3945,7 +3917,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>354</v>
       </c>
@@ -3959,7 +3931,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>354</v>
       </c>
@@ -3973,7 +3945,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>354</v>
       </c>
@@ -3987,7 +3959,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>354</v>
       </c>
@@ -4001,7 +3973,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>354</v>
       </c>
@@ -4015,7 +3987,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>376</v>
       </c>
@@ -4029,7 +4001,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>376</v>
       </c>
@@ -4043,7 +4015,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>376</v>
       </c>
@@ -4057,7 +4029,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>376</v>
       </c>
@@ -4071,7 +4043,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>376</v>
       </c>
@@ -4085,7 +4057,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>376</v>
       </c>
@@ -4099,7 +4071,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>376</v>
       </c>
@@ -4113,7 +4085,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>396</v>
       </c>
@@ -4127,7 +4099,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>396</v>
       </c>
@@ -4141,7 +4113,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>396</v>
       </c>
@@ -4155,7 +4127,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>397</v>
       </c>
@@ -4169,7 +4141,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>397</v>
       </c>
@@ -4183,7 +4155,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>397</v>
       </c>
@@ -4197,7 +4169,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>397</v>
       </c>
@@ -4211,7 +4183,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>407</v>
       </c>
@@ -4225,7 +4197,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>407</v>
       </c>
@@ -4239,7 +4211,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>407</v>
       </c>
@@ -4253,7 +4225,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>408</v>
       </c>
@@ -4267,7 +4239,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>408</v>
       </c>
@@ -4281,7 +4253,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>408</v>
       </c>
@@ -4295,7 +4267,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>415</v>
       </c>
@@ -4309,7 +4281,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>415</v>
       </c>
@@ -4323,7 +4295,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>415</v>
       </c>
@@ -4337,7 +4309,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>415</v>
       </c>
@@ -4351,7 +4323,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>415</v>
       </c>
@@ -4365,7 +4337,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>415</v>
       </c>
@@ -4379,7 +4351,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>428</v>
       </c>
@@ -4393,7 +4365,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>428</v>
       </c>
@@ -4407,7 +4379,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>428</v>
       </c>
@@ -4421,7 +4393,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>429</v>
       </c>
@@ -4435,7 +4407,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>429</v>
       </c>
@@ -4449,7 +4421,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>429</v>
       </c>
@@ -4463,7 +4435,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>430</v>
       </c>
@@ -4477,7 +4449,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>430</v>
       </c>
@@ -4491,7 +4463,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>430</v>
       </c>
@@ -4505,7 +4477,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>430</v>
       </c>
@@ -4519,7 +4491,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>430</v>
       </c>
@@ -4533,7 +4505,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>430</v>
       </c>
@@ -4547,7 +4519,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>430</v>
       </c>
@@ -4561,7 +4533,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>430</v>
       </c>
@@ -4575,7 +4547,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>430</v>
       </c>
@@ -4589,7 +4561,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>431</v>
       </c>
@@ -4603,7 +4575,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>431</v>
       </c>
@@ -4617,7 +4589,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>431</v>
       </c>
@@ -4631,7 +4603,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>431</v>
       </c>
@@ -4645,7 +4617,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>431</v>
       </c>
@@ -4659,7 +4631,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>431</v>
       </c>
@@ -4673,7 +4645,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>431</v>
       </c>
@@ -4687,7 +4659,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>431</v>
       </c>
@@ -4707,17 +4679,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>453</v>
       </c>
@@ -4728,7 +4697,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>456</v>
       </c>
